--- a/Y2-Sem2/就職/2220042_職歴別紙_文家俊_Mac.xlsx
+++ b/Y2-Sem2/就職/2220042_職歴別紙_文家俊_Mac.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10311"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BBC45AC-37BC-6F49-974E-3C47E6CAC34F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5585CAC3-1C8C-3647-B9D3-22C46B05A47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="20100" tabRatio="438" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="履歴書Ｂ４サイズ" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">履歴書Ｂ４サイズ!$A$1:$N$60</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">履歴書Ｂ４サイズ!$A$1:$N$58</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -691,24 +691,126 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -751,113 +853,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -882,13 +882,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>498803</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>39851</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>314953</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1221,10 +1221,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O58"/>
+  <dimension ref="A1:O56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" zoomScale="150" zoomScaleNormal="100" zoomScaleSheetLayoutView="190" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+      <selection activeCell="J4" sqref="J4:M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="14"/>
@@ -1257,21 +1257,21 @@
       <c r="O1" s="6"/>
     </row>
     <row r="2" spans="1:15" s="7" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
     </row>
@@ -1282,18 +1282,18 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="44" t="s">
+      <c r="L3" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="44"/>
+      <c r="M3" s="69"/>
     </row>
     <row r="4" spans="1:15" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="J4" s="43" t="s">
+      <c r="J4" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
     </row>
     <row r="5" spans="1:15" s="8" customFormat="1" ht="18" customHeight="1">
       <c r="A5" s="12" t="s">
@@ -1302,963 +1302,909 @@
       <c r="B5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="27"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="61"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
     </row>
     <row r="6" spans="1:15" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="52"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="28" t="s">
+      <c r="A6" s="49"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="30"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="64"/>
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
     </row>
     <row r="7" spans="1:15" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="53"/>
-      <c r="B7" s="55"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="33"/>
+      <c r="A7" s="50"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="67"/>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
     </row>
     <row r="8" spans="1:15" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="46"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="29"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
     </row>
     <row r="9" spans="1:15" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="16"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="49"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="32"/>
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
     </row>
     <row r="10" spans="1:15" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="15"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="34" t="s">
+      <c r="A10" s="43"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="36"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="20"/>
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
     </row>
     <row r="11" spans="1:15" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="A11" s="16"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="39"/>
+      <c r="A11" s="44"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="23"/>
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
     </row>
     <row r="12" spans="1:15" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="15"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="39"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="23"/>
       <c r="N12" s="10"/>
       <c r="O12" s="10"/>
     </row>
     <row r="13" spans="1:15" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="16"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="39"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="23"/>
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
     </row>
     <row r="14" spans="1:15" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="A14" s="15"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="39"/>
+      <c r="A14" s="43"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="23"/>
       <c r="N14" s="10"/>
       <c r="O14" s="10"/>
     </row>
     <row r="15" spans="1:15" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="A15" s="16"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="39"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="23"/>
       <c r="N15" s="11"/>
       <c r="O15" s="11"/>
     </row>
     <row r="16" spans="1:15" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="A16" s="15"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="39"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="23"/>
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
     </row>
     <row r="17" spans="1:15" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="A17" s="16"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="39"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="23"/>
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
     </row>
     <row r="18" spans="1:15" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="A18" s="15"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="39"/>
+      <c r="A18" s="43"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="23"/>
       <c r="N18" s="10"/>
       <c r="O18" s="10"/>
     </row>
     <row r="19" spans="1:15" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="A19" s="16"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="42"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="26"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
     </row>
     <row r="20" spans="1:15" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="46"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="29"/>
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
     </row>
     <row r="21" spans="1:15" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="A21" s="16"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="49"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="32"/>
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
     </row>
     <row r="22" spans="1:15" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="21"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="55"/>
     </row>
     <row r="23" spans="1:15" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="A23" s="16"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="24"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="58"/>
     </row>
     <row r="24" spans="1:15" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="A24" s="15"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="34" t="s">
+      <c r="A24" s="43"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="36"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="20"/>
     </row>
     <row r="25" spans="1:15" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="A25" s="16"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="39"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="23"/>
     </row>
     <row r="26" spans="1:15" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="A26" s="50"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="39"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="23"/>
     </row>
     <row r="27" spans="1:15" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="A27" s="51"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="39"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="23"/>
     </row>
     <row r="28" spans="1:15" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="A28" s="50"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="39"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="23"/>
     </row>
     <row r="29" spans="1:15" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="A29" s="51"/>
-      <c r="B29" s="57"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="39"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="23"/>
     </row>
     <row r="30" spans="1:15" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="A30" s="15"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="39"/>
+      <c r="A30" s="43"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="23"/>
       <c r="N30" s="10"/>
       <c r="O30" s="10"/>
     </row>
     <row r="31" spans="1:15" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="A31" s="16"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="38"/>
-      <c r="M31" s="39"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="23"/>
       <c r="N31" s="10"/>
       <c r="O31" s="10"/>
     </row>
     <row r="32" spans="1:15" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="A32" s="15"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="39"/>
+      <c r="A32" s="43"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="23"/>
       <c r="N32" s="10"/>
       <c r="O32" s="10"/>
     </row>
     <row r="33" spans="1:15" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="A33" s="16"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="41"/>
-      <c r="J33" s="41"/>
-      <c r="K33" s="41"/>
-      <c r="L33" s="41"/>
-      <c r="M33" s="42"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="26"/>
       <c r="N33" s="10"/>
       <c r="O33" s="10"/>
     </row>
     <row r="34" spans="1:15" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="45"/>
-      <c r="J34" s="45"/>
-      <c r="K34" s="45"/>
-      <c r="L34" s="45"/>
-      <c r="M34" s="46"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="29"/>
       <c r="N34" s="10"/>
       <c r="O34" s="10"/>
     </row>
     <row r="35" spans="1:15" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="A35" s="16"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="48"/>
-      <c r="K35" s="48"/>
-      <c r="L35" s="48"/>
-      <c r="M35" s="49"/>
+      <c r="A35" s="44"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="32"/>
       <c r="N35" s="10"/>
       <c r="O35" s="10"/>
     </row>
     <row r="36" spans="1:15" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C36" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="45"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="45"/>
-      <c r="L36" s="45"/>
-      <c r="M36" s="46"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="29"/>
       <c r="N36" s="10"/>
       <c r="O36" s="10"/>
     </row>
     <row r="37" spans="1:15" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="A37" s="16"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="48"/>
-      <c r="I37" s="48"/>
-      <c r="J37" s="48"/>
-      <c r="K37" s="48"/>
-      <c r="L37" s="48"/>
-      <c r="M37" s="49"/>
+      <c r="A37" s="44"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="32"/>
       <c r="N37" s="11"/>
       <c r="O37" s="11"/>
     </row>
     <row r="38" spans="1:15" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="A38" s="15"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="34" t="s">
+      <c r="A38" s="43"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="35"/>
-      <c r="M38" s="36"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="20"/>
       <c r="N38" s="10"/>
       <c r="O38" s="10"/>
     </row>
     <row r="39" spans="1:15" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="A39" s="16"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="38"/>
-      <c r="K39" s="38"/>
-      <c r="L39" s="38"/>
-      <c r="M39" s="39"/>
+      <c r="A39" s="44"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="23"/>
       <c r="N39" s="10"/>
       <c r="O39" s="10"/>
     </row>
     <row r="40" spans="1:15" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="A40" s="50"/>
-      <c r="B40" s="56"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="38"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="38"/>
-      <c r="M40" s="39"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="23"/>
       <c r="N40" s="10"/>
       <c r="O40" s="10"/>
     </row>
     <row r="41" spans="1:15" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="A41" s="51"/>
-      <c r="B41" s="57"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="38"/>
-      <c r="J41" s="38"/>
-      <c r="K41" s="38"/>
-      <c r="L41" s="38"/>
-      <c r="M41" s="39"/>
+      <c r="A41" s="15"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="23"/>
       <c r="N41" s="10"/>
       <c r="O41" s="10"/>
     </row>
     <row r="42" spans="1:15" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="A42" s="50"/>
-      <c r="B42" s="56"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="38"/>
-      <c r="J42" s="38"/>
-      <c r="K42" s="38"/>
-      <c r="L42" s="38"/>
-      <c r="M42" s="39"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="23"/>
       <c r="N42" s="10"/>
       <c r="O42" s="10"/>
     </row>
     <row r="43" spans="1:15" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="A43" s="51"/>
-      <c r="B43" s="57"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="38"/>
-      <c r="J43" s="38"/>
-      <c r="K43" s="38"/>
-      <c r="L43" s="38"/>
-      <c r="M43" s="39"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="23"/>
       <c r="N43" s="10"/>
       <c r="O43" s="10"/>
     </row>
     <row r="44" spans="1:15" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="A44" s="50"/>
-      <c r="B44" s="56"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="38"/>
-      <c r="K44" s="38"/>
-      <c r="L44" s="38"/>
-      <c r="M44" s="39"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="22"/>
+      <c r="M44" s="23"/>
     </row>
     <row r="45" spans="1:15" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="A45" s="51"/>
-      <c r="B45" s="57"/>
-      <c r="C45" s="37"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="38"/>
-      <c r="J45" s="38"/>
-      <c r="K45" s="38"/>
-      <c r="L45" s="38"/>
-      <c r="M45" s="39"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="22"/>
+      <c r="M45" s="23"/>
     </row>
     <row r="46" spans="1:15" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="A46" s="50"/>
-      <c r="B46" s="56"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="38"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="38"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="38"/>
-      <c r="I46" s="38"/>
-      <c r="J46" s="38"/>
-      <c r="K46" s="38"/>
-      <c r="L46" s="38"/>
-      <c r="M46" s="39"/>
+      <c r="A46" s="14"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="23"/>
     </row>
     <row r="47" spans="1:15" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="A47" s="51"/>
-      <c r="B47" s="57"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="38"/>
-      <c r="J47" s="38"/>
-      <c r="K47" s="38"/>
-      <c r="L47" s="38"/>
-      <c r="M47" s="39"/>
+      <c r="A47" s="15"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="23"/>
     </row>
     <row r="48" spans="1:15" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="A48" s="15"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="37"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="38"/>
-      <c r="G48" s="38"/>
-      <c r="H48" s="38"/>
-      <c r="I48" s="38"/>
-      <c r="J48" s="38"/>
-      <c r="K48" s="38"/>
-      <c r="L48" s="38"/>
-      <c r="M48" s="39"/>
+      <c r="A48" s="43"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="22"/>
+      <c r="M48" s="23"/>
     </row>
     <row r="49" spans="1:13" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="A49" s="16"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="38"/>
-      <c r="G49" s="38"/>
-      <c r="H49" s="38"/>
-      <c r="I49" s="38"/>
-      <c r="J49" s="38"/>
-      <c r="K49" s="38"/>
-      <c r="L49" s="38"/>
-      <c r="M49" s="39"/>
+      <c r="A49" s="44"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="23"/>
     </row>
     <row r="50" spans="1:13" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="A50" s="50"/>
-      <c r="B50" s="56"/>
-      <c r="C50" s="37"/>
-      <c r="D50" s="38"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="38"/>
-      <c r="G50" s="38"/>
-      <c r="H50" s="38"/>
-      <c r="I50" s="38"/>
-      <c r="J50" s="38"/>
-      <c r="K50" s="38"/>
-      <c r="L50" s="38"/>
-      <c r="M50" s="39"/>
+      <c r="A50" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="28"/>
+      <c r="K50" s="28"/>
+      <c r="L50" s="28"/>
+      <c r="M50" s="29"/>
     </row>
     <row r="51" spans="1:13" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="A51" s="51"/>
-      <c r="B51" s="57"/>
-      <c r="C51" s="40"/>
-      <c r="D51" s="41"/>
-      <c r="E51" s="41"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="41"/>
-      <c r="I51" s="41"/>
-      <c r="J51" s="41"/>
-      <c r="K51" s="41"/>
-      <c r="L51" s="41"/>
-      <c r="M51" s="42"/>
+      <c r="A51" s="44"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="31"/>
+      <c r="M51" s="32"/>
     </row>
     <row r="52" spans="1:13" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="A52" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B52" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C52" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D52" s="45"/>
-      <c r="E52" s="45"/>
-      <c r="F52" s="45"/>
-      <c r="G52" s="45"/>
-      <c r="H52" s="45"/>
-      <c r="I52" s="45"/>
-      <c r="J52" s="45"/>
-      <c r="K52" s="45"/>
-      <c r="L52" s="45"/>
-      <c r="M52" s="46"/>
+      <c r="A52" s="43"/>
+      <c r="B52" s="45"/>
+      <c r="C52" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="34"/>
+      <c r="I52" s="34"/>
+      <c r="J52" s="34"/>
+      <c r="K52" s="34"/>
+      <c r="L52" s="34"/>
+      <c r="M52" s="35"/>
     </row>
     <row r="53" spans="1:13" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="A53" s="16"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="47"/>
-      <c r="D53" s="48"/>
-      <c r="E53" s="48"/>
-      <c r="F53" s="48"/>
-      <c r="G53" s="48"/>
-      <c r="H53" s="48"/>
-      <c r="I53" s="48"/>
-      <c r="J53" s="48"/>
-      <c r="K53" s="48"/>
-      <c r="L53" s="48"/>
-      <c r="M53" s="49"/>
+      <c r="A53" s="44"/>
+      <c r="B53" s="46"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="37"/>
+      <c r="I53" s="37"/>
+      <c r="J53" s="37"/>
+      <c r="K53" s="37"/>
+      <c r="L53" s="37"/>
+      <c r="M53" s="38"/>
     </row>
     <row r="54" spans="1:13" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="A54" s="15"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="D54" s="59"/>
-      <c r="E54" s="59"/>
-      <c r="F54" s="59"/>
-      <c r="G54" s="59"/>
-      <c r="H54" s="59"/>
-      <c r="I54" s="59"/>
-      <c r="J54" s="59"/>
-      <c r="K54" s="59"/>
-      <c r="L54" s="59"/>
-      <c r="M54" s="60"/>
-    </row>
-    <row r="55" spans="1:13" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="A55" s="16"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="61"/>
-      <c r="D55" s="62"/>
-      <c r="E55" s="62"/>
-      <c r="F55" s="62"/>
-      <c r="G55" s="62"/>
-      <c r="H55" s="62"/>
-      <c r="I55" s="62"/>
-      <c r="J55" s="62"/>
-      <c r="K55" s="62"/>
-      <c r="L55" s="62"/>
-      <c r="M55" s="63"/>
-    </row>
-    <row r="56" spans="1:13" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="A56" s="50"/>
-      <c r="B56" s="56"/>
-      <c r="C56" s="64"/>
-      <c r="D56" s="64"/>
-      <c r="E56" s="64"/>
-      <c r="F56" s="64"/>
-      <c r="G56" s="64"/>
-      <c r="H56" s="64"/>
-      <c r="I56" s="64"/>
-      <c r="J56" s="64"/>
-      <c r="K56" s="64"/>
-      <c r="L56" s="64"/>
-      <c r="M56" s="65"/>
-    </row>
-    <row r="57" spans="1:13" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A57" s="68"/>
-      <c r="B57" s="69"/>
-      <c r="C57" s="66"/>
-      <c r="D57" s="66"/>
-      <c r="E57" s="66"/>
-      <c r="F57" s="66"/>
-      <c r="G57" s="66"/>
-      <c r="H57" s="66"/>
-      <c r="I57" s="66"/>
-      <c r="J57" s="66"/>
-      <c r="K57" s="66"/>
-      <c r="L57" s="66"/>
-      <c r="M57" s="67"/>
-    </row>
-    <row r="58" spans="1:13" s="2" customFormat="1" ht="10" customHeight="1">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
-      <c r="L58" s="5"/>
-      <c r="M58" s="5"/>
+      <c r="A54" s="14"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="39"/>
+      <c r="I54" s="39"/>
+      <c r="J54" s="39"/>
+      <c r="K54" s="39"/>
+      <c r="L54" s="39"/>
+      <c r="M54" s="40"/>
+    </row>
+    <row r="55" spans="1:13" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A55" s="47"/>
+      <c r="B55" s="48"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="41"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="41"/>
+      <c r="I55" s="41"/>
+      <c r="J55" s="41"/>
+      <c r="K55" s="41"/>
+      <c r="L55" s="41"/>
+      <c r="M55" s="42"/>
+    </row>
+    <row r="56" spans="1:13" s="2" customFormat="1" ht="10" customHeight="1">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="68">
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C38:M51"/>
-    <mergeCell ref="C52:M53"/>
-    <mergeCell ref="C54:M55"/>
-    <mergeCell ref="C56:M57"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="C34:M35"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
+  <mergeCells count="66">
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:M23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C5:M5"/>
+    <mergeCell ref="C6:M7"/>
+    <mergeCell ref="C10:M19"/>
+    <mergeCell ref="C24:M33"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="L3:M3"/>
     <mergeCell ref="C36:M37"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:B15"/>
@@ -2275,25 +2221,47 @@
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="C20:M21"/>
     <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:M23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C5:M5"/>
-    <mergeCell ref="C6:M7"/>
-    <mergeCell ref="C10:M19"/>
-    <mergeCell ref="C24:M33"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="C34:M35"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="C50:M51"/>
+    <mergeCell ref="C52:M53"/>
+    <mergeCell ref="C54:M55"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C38:M49"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="13" scale="64" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="13" scale="66" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="1" max="28" man="1"/>
   </rowBreaks>
@@ -2305,6 +2273,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="818372c2-5ca1-41d4-8e9c-cfddae3549a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="17b0db3f-bb77-44b7-9a15-7825ddede5b7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005D613A5EAFE00F468F9EFC7DA0099D63" ma:contentTypeVersion="13" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="0b760e266439ab167040dcc2c0736f84">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="818372c2-5ca1-41d4-8e9c-cfddae3549a4" xmlns:ns3="17b0db3f-bb77-44b7-9a15-7825ddede5b7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f105041562af0d128b58ba3f56905a79" ns2:_="" ns3:_="">
     <xsd:import namespace="818372c2-5ca1-41d4-8e9c-cfddae3549a4"/>
@@ -2527,27 +2515,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="818372c2-5ca1-41d4-8e9c-cfddae3549a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="17b0db3f-bb77-44b7-9a15-7825ddede5b7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8A5D733-3C63-4D8F-82EB-9A345BB70CD7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A7BA7F-CC41-4608-B120-04A9096455EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="818372c2-5ca1-41d4-8e9c-cfddae3549a4"/>
+    <ds:schemaRef ds:uri="17b0db3f-bb77-44b7-9a15-7825ddede5b7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33FD6E65-8C83-4A24-82D8-43CB0863439A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2564,23 +2551,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A7BA7F-CC41-4608-B120-04A9096455EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="818372c2-5ca1-41d4-8e9c-cfddae3549a4"/>
-    <ds:schemaRef ds:uri="17b0db3f-bb77-44b7-9a15-7825ddede5b7"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8A5D733-3C63-4D8F-82EB-9A345BB70CD7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>